--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/RefreshableVIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/RefreshableVIN_CA_SELECT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>1HGEM215&amp;4</t>
-  </si>
-  <si>
     <t>TEST</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>1HGEM215&amp;5</t>
   </si>
 </sst>
 </file>
@@ -584,31 +584,31 @@
   <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" customWidth="1"/>
-    <col min="21" max="21" width="22.88671875" customWidth="1"/>
-    <col min="23" max="23" width="22.21875" customWidth="1"/>
-    <col min="24" max="24" width="20.88671875" customWidth="1"/>
-    <col min="25" max="25" width="34.77734375" customWidth="1"/>
-    <col min="26" max="26" width="6.33203125" customWidth="1"/>
-    <col min="27" max="27" width="14.88671875" customWidth="1"/>
-    <col min="28" max="29" width="16.21875" customWidth="1"/>
-    <col min="38" max="38" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" customWidth="1"/>
+    <col min="24" max="24" width="20.85546875" customWidth="1"/>
+    <col min="25" max="25" width="34.7109375" customWidth="1"/>
+    <col min="26" max="26" width="6.28515625" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" customWidth="1"/>
+    <col min="28" max="29" width="16.28515625" customWidth="1"/>
+    <col min="38" max="38" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +685,7 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>25</v>
@@ -694,39 +694,39 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>65</v>
-      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>
@@ -735,33 +735,33 @@
         <v>2018</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="H2" s="3">
         <v>20000</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="O2" s="3">
         <v>4</v>
@@ -775,25 +775,25 @@
         <v>2</v>
       </c>
       <c r="T2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="V2" s="3">
         <v>1</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="Y2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="AA2" s="3">
         <v>44</v>
@@ -802,22 +802,22 @@
         <v>44</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI2">
         <v>20000101</v>
@@ -826,15 +826,15 @@
         <v>40</v>
       </c>
       <c r="AK2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>41</v>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>28</v>
@@ -843,13 +843,13 @@
         <v>2018</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>29</v>
@@ -861,13 +861,13 @@
         <v>30</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>30</v>
@@ -909,48 +909,48 @@
         <v>38</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AD3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI3">
         <v>20010101</v>
       </c>
       <c r="AJ3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>41</v>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>28</v>
@@ -959,13 +959,13 @@
         <v>2018</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>29</v>
@@ -977,13 +977,13 @@
         <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>30</v>
@@ -1025,31 +1025,31 @@
         <v>38</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AD4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AI4">
         <v>20020101</v>
@@ -1058,15 +1058,15 @@
         <v>40</v>
       </c>
       <c r="AK4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>41</v>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>28</v>
@@ -1075,13 +1075,13 @@
         <v>2018</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>29</v>
@@ -1093,13 +1093,13 @@
         <v>30</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>30</v>
@@ -1141,31 +1141,31 @@
         <v>38</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AD5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI5">
         <v>20150101</v>
@@ -1174,13 +1174,14 @@
         <v>40</v>
       </c>
       <c r="AK5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>